--- a/data/pca/factorExposure/factorExposure_2011-03-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01121364867084293</v>
+        <v>-0.01401949146590053</v>
       </c>
       <c r="C2">
-        <v>0.002105827137006533</v>
+        <v>-0.006327742846311637</v>
       </c>
       <c r="D2">
-        <v>0.01285648413751988</v>
+        <v>0.004941882435070264</v>
       </c>
       <c r="E2">
-        <v>0.01810671178666694</v>
+        <v>-0.01106296534599905</v>
       </c>
       <c r="F2">
-        <v>0.0001123732873929345</v>
+        <v>-0.003296951948123647</v>
       </c>
       <c r="G2">
-        <v>0.0157806810472606</v>
+        <v>-0.02057459090945395</v>
       </c>
       <c r="H2">
-        <v>0.04215217945905944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.002573412887703423</v>
+      </c>
+      <c r="I2">
+        <v>-0.007933041576399609</v>
+      </c>
+      <c r="J2">
+        <v>-0.009920459910412243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1078243002052036</v>
+        <v>-0.1216200655844192</v>
       </c>
       <c r="C4">
-        <v>-0.02046100195984264</v>
+        <v>-0.05410066431209631</v>
       </c>
       <c r="D4">
-        <v>0.07416316560703949</v>
+        <v>0.006054269347454815</v>
       </c>
       <c r="E4">
-        <v>0.03263637101325322</v>
+        <v>0.004544638405198263</v>
       </c>
       <c r="F4">
-        <v>0.05306886307932209</v>
+        <v>-0.01085419485385253</v>
       </c>
       <c r="G4">
-        <v>0.01672009120584251</v>
+        <v>-0.005396447777629534</v>
       </c>
       <c r="H4">
-        <v>-0.02895986480425351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.07375469527286424</v>
+      </c>
+      <c r="I4">
+        <v>-0.1315516897106007</v>
+      </c>
+      <c r="J4">
+        <v>-0.05846193369488353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1296421987673159</v>
+        <v>-0.1241718240740581</v>
       </c>
       <c r="C6">
-        <v>-0.02407744486133032</v>
+        <v>0.0008082860313590143</v>
       </c>
       <c r="D6">
-        <v>0.01114732035860517</v>
+        <v>0.01086284154876512</v>
       </c>
       <c r="E6">
-        <v>0.01462181654278994</v>
+        <v>-0.01510090914656629</v>
       </c>
       <c r="F6">
-        <v>-0.1919241886966604</v>
+        <v>-0.02487592800057488</v>
       </c>
       <c r="G6">
-        <v>-0.1172060457933903</v>
+        <v>0.04213544241491616</v>
       </c>
       <c r="H6">
-        <v>-0.2839778373417515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.04143329814223742</v>
+      </c>
+      <c r="I6">
+        <v>-0.07057669899722824</v>
+      </c>
+      <c r="J6">
+        <v>0.1876507559351583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.09020007485264005</v>
+        <v>-0.07977746857651657</v>
       </c>
       <c r="C7">
-        <v>-0.03592879883523274</v>
+        <v>-0.04757496229437452</v>
       </c>
       <c r="D7">
-        <v>0.03521133424237469</v>
+        <v>0.03731805843702467</v>
       </c>
       <c r="E7">
-        <v>0.05266190088802437</v>
+        <v>-0.04039952013422954</v>
       </c>
       <c r="F7">
-        <v>-0.002005343957832209</v>
+        <v>-0.007363064819924468</v>
       </c>
       <c r="G7">
-        <v>-0.001817935884777001</v>
+        <v>-0.03750276228469578</v>
       </c>
       <c r="H7">
-        <v>-0.004200975234560192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.02154660220448531</v>
+      </c>
+      <c r="I7">
+        <v>-0.02819905282794254</v>
+      </c>
+      <c r="J7">
+        <v>-0.04164645619131117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04092338349108221</v>
+        <v>-0.05244389377487663</v>
       </c>
       <c r="C8">
-        <v>0.03377713596961705</v>
+        <v>-0.01286859042506026</v>
       </c>
       <c r="D8">
-        <v>0.1193933593604702</v>
+        <v>0.005345685111265127</v>
       </c>
       <c r="E8">
-        <v>0.0848375536902231</v>
+        <v>-0.01530643396789973</v>
       </c>
       <c r="F8">
-        <v>0.04105957673942816</v>
+        <v>0.001298383158930984</v>
       </c>
       <c r="G8">
-        <v>0.1281852809098242</v>
+        <v>-0.001876703541310467</v>
       </c>
       <c r="H8">
-        <v>-0.06288435880171375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.09532132798637023</v>
+      </c>
+      <c r="I8">
+        <v>-0.1004458445229275</v>
+      </c>
+      <c r="J8">
+        <v>-0.01333019627462523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09329914097849996</v>
+        <v>-0.0929890528603277</v>
       </c>
       <c r="C9">
-        <v>-0.0390242134705143</v>
+        <v>-0.05413951350415824</v>
       </c>
       <c r="D9">
-        <v>0.0630374986489233</v>
+        <v>-0.006460199834850779</v>
       </c>
       <c r="E9">
-        <v>0.03881227010714648</v>
+        <v>-0.007377114697949471</v>
       </c>
       <c r="F9">
-        <v>0.03417126071517519</v>
+        <v>-0.001166834389047679</v>
       </c>
       <c r="G9">
-        <v>0.06235521439824021</v>
+        <v>-0.01900890369683726</v>
       </c>
       <c r="H9">
-        <v>-0.04396339564679987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.07899125619327046</v>
+      </c>
+      <c r="I9">
+        <v>-0.1102380196752221</v>
+      </c>
+      <c r="J9">
+        <v>-0.02908180219238137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03797399095375105</v>
+        <v>-0.08123233141787216</v>
       </c>
       <c r="C10">
-        <v>0.1728638330617546</v>
+        <v>0.1833244524993274</v>
       </c>
       <c r="D10">
-        <v>0.0501573188462896</v>
+        <v>-0.01557184623910965</v>
       </c>
       <c r="E10">
-        <v>0.09859706846415522</v>
+        <v>0.009770970499393435</v>
       </c>
       <c r="F10">
-        <v>-0.004455782388432859</v>
+        <v>-0.01061830192752609</v>
       </c>
       <c r="G10">
-        <v>-0.02507550697497176</v>
+        <v>-0.06505362861173755</v>
       </c>
       <c r="H10">
-        <v>-0.02994939288236585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.008940363431199581</v>
+      </c>
+      <c r="I10">
+        <v>0.002039745871881642</v>
+      </c>
+      <c r="J10">
+        <v>-0.0180707724327217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07598968840200308</v>
+        <v>-0.08192565922292243</v>
       </c>
       <c r="C11">
-        <v>-0.06247612613750748</v>
+        <v>-0.05302922638073754</v>
       </c>
       <c r="D11">
-        <v>-0.003452916699556185</v>
+        <v>0.02367751685685672</v>
       </c>
       <c r="E11">
-        <v>0.03372810113871931</v>
+        <v>-0.02576570662442683</v>
       </c>
       <c r="F11">
-        <v>0.01392311231012354</v>
+        <v>0.03194100179042728</v>
       </c>
       <c r="G11">
-        <v>0.1589859298458824</v>
+        <v>0.0004263987849846267</v>
       </c>
       <c r="H11">
-        <v>0.05631151489674999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.08477108674041477</v>
+      </c>
+      <c r="I11">
+        <v>-0.08572533695804556</v>
+      </c>
+      <c r="J11">
+        <v>-0.009046537527679572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07334321614517289</v>
+        <v>-0.08375585016254553</v>
       </c>
       <c r="C12">
-        <v>-0.04203269396979486</v>
+        <v>-0.05992292008835907</v>
       </c>
       <c r="D12">
-        <v>0.03349106252914467</v>
+        <v>0.0270688133255003</v>
       </c>
       <c r="E12">
-        <v>0.01327988552149773</v>
+        <v>-0.0332171116364281</v>
       </c>
       <c r="F12">
-        <v>-0.005879156909853716</v>
+        <v>0.05379377699843156</v>
       </c>
       <c r="G12">
-        <v>0.1453872218840524</v>
+        <v>-0.0102906976097218</v>
       </c>
       <c r="H12">
-        <v>0.02694148345393447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.09652886379182564</v>
+      </c>
+      <c r="I12">
+        <v>-0.07671801144995329</v>
+      </c>
+      <c r="J12">
+        <v>0.01403378247214163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06350835570206519</v>
+        <v>-0.04431646239402273</v>
       </c>
       <c r="C13">
-        <v>-0.006788751690909652</v>
+        <v>-0.02815626375126191</v>
       </c>
       <c r="D13">
-        <v>0.02770312962491707</v>
+        <v>-0.02419461807816663</v>
       </c>
       <c r="E13">
-        <v>0.00405979346081179</v>
+        <v>-0.01110115475827095</v>
       </c>
       <c r="F13">
-        <v>0.05888738000016534</v>
+        <v>-0.02870675640943561</v>
       </c>
       <c r="G13">
-        <v>0.06065289540903956</v>
+        <v>-0.01174339967378204</v>
       </c>
       <c r="H13">
-        <v>-0.001848485303551569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.06032577233888681</v>
+      </c>
+      <c r="I13">
+        <v>-0.05636481485914384</v>
+      </c>
+      <c r="J13">
+        <v>0.0168423852993041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05186675132105064</v>
+        <v>-0.03691870856254167</v>
       </c>
       <c r="C14">
-        <v>-0.007357792354823364</v>
+        <v>-0.00643942333786681</v>
       </c>
       <c r="D14">
-        <v>0.03923447739499764</v>
+        <v>0.006007570564956743</v>
       </c>
       <c r="E14">
-        <v>0.04775889415174127</v>
+        <v>0.007966020761967058</v>
       </c>
       <c r="F14">
-        <v>0.03104890823353174</v>
+        <v>0.009171592447470395</v>
       </c>
       <c r="G14">
-        <v>0.02340293655524671</v>
+        <v>-0.008066801106653932</v>
       </c>
       <c r="H14">
-        <v>-0.1409229841561726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.05308532694189258</v>
+      </c>
+      <c r="I14">
+        <v>-0.04921783363162106</v>
+      </c>
+      <c r="J14">
+        <v>-0.07605198358351421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03634403577747169</v>
+        <v>-0.02511351302470523</v>
       </c>
       <c r="C15">
-        <v>0.0111663523828383</v>
+        <v>-0.007148164045215389</v>
       </c>
       <c r="D15">
-        <v>0.01199662961000034</v>
+        <v>-0.01025276289647713</v>
       </c>
       <c r="E15">
-        <v>0.01955893550202293</v>
+        <v>-0.01220839005606234</v>
       </c>
       <c r="F15">
-        <v>0.008751739576982146</v>
+        <v>-0.03868474781562498</v>
       </c>
       <c r="G15">
-        <v>0.01134038336144013</v>
+        <v>-0.009696047154406078</v>
       </c>
       <c r="H15">
-        <v>-0.06130263293234207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.01572689603795807</v>
+      </c>
+      <c r="I15">
+        <v>-0.01643705063295622</v>
+      </c>
+      <c r="J15">
+        <v>-0.01533954199918458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08132397583768231</v>
+        <v>-0.08988969216511086</v>
       </c>
       <c r="C16">
-        <v>-0.06972540905272621</v>
+        <v>-0.05982077685708622</v>
       </c>
       <c r="D16">
-        <v>0.03490650621448102</v>
+        <v>0.03479595750081318</v>
       </c>
       <c r="E16">
-        <v>0.01424260377801098</v>
+        <v>-0.03636762028288337</v>
       </c>
       <c r="F16">
-        <v>0.05043752381599571</v>
+        <v>0.03622586564062271</v>
       </c>
       <c r="G16">
-        <v>0.114932134152838</v>
+        <v>-0.001140112619961459</v>
       </c>
       <c r="H16">
-        <v>0.05597778996032096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.1122733153927448</v>
+      </c>
+      <c r="I16">
+        <v>-0.0580932935586628</v>
+      </c>
+      <c r="J16">
+        <v>-0.01523193276156729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05566227778182478</v>
+        <v>-0.05233793076358926</v>
       </c>
       <c r="C20">
-        <v>-0.01895494698828048</v>
+        <v>-0.02736028990265919</v>
       </c>
       <c r="D20">
-        <v>0.02149501800748714</v>
+        <v>0.03087195944536686</v>
       </c>
       <c r="E20">
-        <v>0.01825965474567746</v>
+        <v>-0.001097809875399913</v>
       </c>
       <c r="F20">
-        <v>0.009790781134911499</v>
+        <v>-0.01494288244741878</v>
       </c>
       <c r="G20">
-        <v>0.1047489524660203</v>
+        <v>-0.004437791051587346</v>
       </c>
       <c r="H20">
-        <v>0.001666340306829294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.05063844583186038</v>
+      </c>
+      <c r="I20">
+        <v>-0.04401319569437738</v>
+      </c>
+      <c r="J20">
+        <v>-0.03211234756524676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02994058719264427</v>
+        <v>-0.02960325375543176</v>
       </c>
       <c r="C21">
-        <v>-0.03753350687962263</v>
+        <v>-0.007720198135958</v>
       </c>
       <c r="D21">
-        <v>0.01506552506118817</v>
+        <v>0.008897860745760069</v>
       </c>
       <c r="E21">
-        <v>0.009451567585845437</v>
+        <v>0.04103136241255478</v>
       </c>
       <c r="F21">
-        <v>-0.07610260783554082</v>
+        <v>-0.0141562983609131</v>
       </c>
       <c r="G21">
-        <v>-0.1042702291935554</v>
+        <v>0.03106805711332091</v>
       </c>
       <c r="H21">
-        <v>-0.09478767159781318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.03233884225699617</v>
+      </c>
+      <c r="I21">
+        <v>-0.07323327766459699</v>
+      </c>
+      <c r="J21">
+        <v>0.001681743253340615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.0434218932618722</v>
+        <v>-0.03506322188850292</v>
       </c>
       <c r="C22">
-        <v>-0.01993427556613616</v>
+        <v>0.01053967587733273</v>
       </c>
       <c r="D22">
-        <v>0.513088621808135</v>
+        <v>0.009255339162602211</v>
       </c>
       <c r="E22">
-        <v>-0.2333238792134625</v>
+        <v>-0.1533475995990022</v>
       </c>
       <c r="F22">
-        <v>0.1071660245131227</v>
+        <v>-0.6269227719474609</v>
       </c>
       <c r="G22">
-        <v>-0.3147211260665278</v>
+        <v>-0.08652978469827147</v>
       </c>
       <c r="H22">
-        <v>0.1106262887615796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.09871134005857567</v>
+      </c>
+      <c r="I22">
+        <v>0.1493927984792596</v>
+      </c>
+      <c r="J22">
+        <v>0.03213567164005074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04355418429703897</v>
+        <v>-0.03525740203190207</v>
       </c>
       <c r="C23">
-        <v>-0.02033581696729102</v>
+        <v>0.01022092983372283</v>
       </c>
       <c r="D23">
-        <v>0.5126290808001397</v>
+        <v>0.009653053430948737</v>
       </c>
       <c r="E23">
-        <v>-0.2308938198958041</v>
+        <v>-0.155082355313214</v>
       </c>
       <c r="F23">
-        <v>0.1084101858043796</v>
+        <v>-0.6288222428883374</v>
       </c>
       <c r="G23">
-        <v>-0.3158198476034725</v>
+        <v>-0.08639683049174481</v>
       </c>
       <c r="H23">
-        <v>0.1098450771413439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1005451333187571</v>
+      </c>
+      <c r="I23">
+        <v>0.1461270586629109</v>
+      </c>
+      <c r="J23">
+        <v>0.03098329984374944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08543541234958645</v>
+        <v>-0.09063654387812196</v>
       </c>
       <c r="C24">
-        <v>-0.0498231165467903</v>
+        <v>-0.05112333123999175</v>
       </c>
       <c r="D24">
-        <v>0.04067814440026656</v>
+        <v>0.03418392044222456</v>
       </c>
       <c r="E24">
-        <v>0.03246406825309105</v>
+        <v>-0.02491039372669495</v>
       </c>
       <c r="F24">
-        <v>0.01272205687265407</v>
+        <v>0.03141342262486278</v>
       </c>
       <c r="G24">
-        <v>0.1206738211394208</v>
+        <v>-0.0180709373838204</v>
       </c>
       <c r="H24">
-        <v>0.02335479517970336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.09888954470015683</v>
+      </c>
+      <c r="I24">
+        <v>-0.0607666448181772</v>
+      </c>
+      <c r="J24">
+        <v>0.0026646456928888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07688606447483641</v>
+        <v>-0.09106669155505571</v>
       </c>
       <c r="C25">
-        <v>-0.02310481138675047</v>
+        <v>-0.03520359414147317</v>
       </c>
       <c r="D25">
-        <v>0.0339772310582817</v>
+        <v>0.0245472796995124</v>
       </c>
       <c r="E25">
-        <v>0.02089451685640252</v>
+        <v>-0.0250739379623782</v>
       </c>
       <c r="F25">
-        <v>-0.004020354222234086</v>
+        <v>0.05801815962569569</v>
       </c>
       <c r="G25">
-        <v>0.1156925031522042</v>
+        <v>-0.01362943756410607</v>
       </c>
       <c r="H25">
-        <v>0.02365147013651493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09833812466067593</v>
+      </c>
+      <c r="I25">
+        <v>-0.05336976959659925</v>
+      </c>
+      <c r="J25">
+        <v>-0.02133895968739406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05181878637186496</v>
+        <v>-0.03926339236186672</v>
       </c>
       <c r="C26">
-        <v>-0.02309431606517776</v>
+        <v>0.01532558788693863</v>
       </c>
       <c r="D26">
-        <v>0.02200259205523169</v>
+        <v>0.02464082688305059</v>
       </c>
       <c r="E26">
-        <v>0.04900642633171533</v>
+        <v>0.002881320890554239</v>
       </c>
       <c r="F26">
-        <v>0.03958322252263162</v>
+        <v>-0.01201223182136386</v>
       </c>
       <c r="G26">
-        <v>0.05481454143102132</v>
+        <v>0.01930372574006757</v>
       </c>
       <c r="H26">
-        <v>-0.07560940769999204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05614069259680464</v>
+      </c>
+      <c r="I26">
+        <v>-0.03076274664463756</v>
+      </c>
+      <c r="J26">
+        <v>-0.04495854113869572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06095458229872181</v>
+        <v>-0.08899718958890658</v>
       </c>
       <c r="C28">
-        <v>0.3063208128769726</v>
+        <v>0.3086561825861596</v>
       </c>
       <c r="D28">
-        <v>-0.009481892310587707</v>
+        <v>-0.09253013940426344</v>
       </c>
       <c r="E28">
-        <v>0.02580470838143444</v>
+        <v>-0.004281197340930491</v>
       </c>
       <c r="F28">
-        <v>-0.04863968742740744</v>
+        <v>0.0192927928930085</v>
       </c>
       <c r="G28">
-        <v>-0.01632812864705224</v>
+        <v>-0.004894898487763918</v>
       </c>
       <c r="H28">
-        <v>0.06230263222742636</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.02655309880143452</v>
+      </c>
+      <c r="I28">
+        <v>-0.01696689964105517</v>
+      </c>
+      <c r="J28">
+        <v>0.01884169272056836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05956871271478497</v>
+        <v>-0.03830721258253821</v>
       </c>
       <c r="C29">
-        <v>-0.001825888402393124</v>
+        <v>-0.007492408110819066</v>
       </c>
       <c r="D29">
-        <v>0.05000944960687162</v>
+        <v>-0.007171500202866222</v>
       </c>
       <c r="E29">
-        <v>0.02121979109132866</v>
+        <v>-0.0002346996006169969</v>
       </c>
       <c r="F29">
-        <v>0.03932859595055618</v>
+        <v>0.01030982586564723</v>
       </c>
       <c r="G29">
-        <v>0.03244331169279972</v>
+        <v>-0.02571455113163111</v>
       </c>
       <c r="H29">
-        <v>-0.08797270382946801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.09183825042706281</v>
+      </c>
+      <c r="I29">
+        <v>-0.03118840885244216</v>
+      </c>
+      <c r="J29">
+        <v>-0.06206524983007918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1159275211834102</v>
+        <v>-0.1117191410696071</v>
       </c>
       <c r="C30">
-        <v>0.02577824773287139</v>
+        <v>-0.07200596287085229</v>
       </c>
       <c r="D30">
-        <v>0.2377244269796947</v>
+        <v>-0.009602357890720593</v>
       </c>
       <c r="E30">
-        <v>0.01286190821343642</v>
+        <v>-0.04233904108285899</v>
       </c>
       <c r="F30">
-        <v>-0.08205273715970907</v>
+        <v>0.008915525600747964</v>
       </c>
       <c r="G30">
-        <v>0.1593253490853708</v>
+        <v>0.03137274654485111</v>
       </c>
       <c r="H30">
-        <v>0.03225712003944613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1987546330831619</v>
+      </c>
+      <c r="I30">
+        <v>-0.1046876323408787</v>
+      </c>
+      <c r="J30">
+        <v>0.2583451769894445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05621171771846915</v>
+        <v>-0.03860849614038235</v>
       </c>
       <c r="C31">
-        <v>-0.02163286774027856</v>
+        <v>-0.02295391362796851</v>
       </c>
       <c r="D31">
-        <v>0.002487097799636234</v>
+        <v>0.01592569337237444</v>
       </c>
       <c r="E31">
-        <v>-0.01870775484686856</v>
+        <v>-0.01557745262653694</v>
       </c>
       <c r="F31">
-        <v>0.03869115402753886</v>
+        <v>-0.0001623418775960776</v>
       </c>
       <c r="G31">
-        <v>0.009199798964865303</v>
+        <v>-0.004433743156112449</v>
       </c>
       <c r="H31">
-        <v>-0.02289487065046255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03163736640292397</v>
+      </c>
+      <c r="I31">
+        <v>-0.01529624210449113</v>
+      </c>
+      <c r="J31">
+        <v>-0.06101178830093068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03243442589053368</v>
+        <v>-0.05428097732218533</v>
       </c>
       <c r="C32">
-        <v>0.01164179762226285</v>
+        <v>-0.001483877610520028</v>
       </c>
       <c r="D32">
-        <v>0.08643760564344988</v>
+        <v>0.0217071047047352</v>
       </c>
       <c r="E32">
-        <v>-0.04548837431510817</v>
+        <v>0.009703819814098312</v>
       </c>
       <c r="F32">
-        <v>0.1216241608681363</v>
+        <v>0.04085298089836512</v>
       </c>
       <c r="G32">
-        <v>0.0214017330621287</v>
+        <v>0.04340294182897601</v>
       </c>
       <c r="H32">
-        <v>0.001681985630275898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.0292584272517435</v>
+      </c>
+      <c r="I32">
+        <v>-0.02096229957449752</v>
+      </c>
+      <c r="J32">
+        <v>0.008258287031600888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.112078720691237</v>
+        <v>-0.1039223131647868</v>
       </c>
       <c r="C33">
-        <v>-0.01523937960902109</v>
+        <v>-0.04857829812546995</v>
       </c>
       <c r="D33">
-        <v>0.01044097545831602</v>
+        <v>-0.002081582795636935</v>
       </c>
       <c r="E33">
-        <v>-0.02414665479348718</v>
+        <v>-0.06767276659321468</v>
       </c>
       <c r="F33">
-        <v>0.02191536021744289</v>
+        <v>0.03123651567218204</v>
       </c>
       <c r="G33">
-        <v>0.07763891964297098</v>
+        <v>3.459868370434456e-05</v>
       </c>
       <c r="H33">
-        <v>-0.06278026565444048</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.044608536665761</v>
+      </c>
+      <c r="I33">
+        <v>-0.04053304409002978</v>
+      </c>
+      <c r="J33">
+        <v>-0.02267679787254409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.0685202491400264</v>
+        <v>-0.07680217709771177</v>
       </c>
       <c r="C34">
-        <v>-0.04339548376853677</v>
+        <v>-0.04371005555386771</v>
       </c>
       <c r="D34">
-        <v>0.01114381548370543</v>
+        <v>0.03577068587090127</v>
       </c>
       <c r="E34">
-        <v>0.002612857144531886</v>
+        <v>-0.03533789685629193</v>
       </c>
       <c r="F34">
-        <v>0.03056346688834477</v>
+        <v>0.03707554146994395</v>
       </c>
       <c r="G34">
-        <v>0.09622895111887671</v>
+        <v>-0.008372895070955084</v>
       </c>
       <c r="H34">
-        <v>0.01878431419393996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.10278365854254</v>
+      </c>
+      <c r="I34">
+        <v>-0.06453688968883389</v>
+      </c>
+      <c r="J34">
+        <v>-0.02536945890985785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04413272115174224</v>
+        <v>-0.02194886721293039</v>
       </c>
       <c r="C35">
-        <v>-0.009067179260149921</v>
+        <v>-0.01393206543031904</v>
       </c>
       <c r="D35">
-        <v>0.003091555558028428</v>
+        <v>-0.006425284060349798</v>
       </c>
       <c r="E35">
-        <v>-0.01237303526816495</v>
+        <v>-0.002706476818089764</v>
       </c>
       <c r="F35">
-        <v>-0.05169131289564276</v>
+        <v>0.002977994730355779</v>
       </c>
       <c r="G35">
-        <v>0.04672436608872439</v>
+        <v>-0.006699289402657528</v>
       </c>
       <c r="H35">
-        <v>0.02356422699159054</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.05492704316488433</v>
+      </c>
+      <c r="I35">
+        <v>-0.01368898392441332</v>
+      </c>
+      <c r="J35">
+        <v>-0.03975633191448915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03986513246597374</v>
+        <v>-0.03144585986943448</v>
       </c>
       <c r="C36">
-        <v>-0.0002683019005684527</v>
+        <v>-0.006006962172110263</v>
       </c>
       <c r="D36">
-        <v>0.04562884629686961</v>
+        <v>-0.008791557303979954</v>
       </c>
       <c r="E36">
-        <v>0.01377429801544736</v>
+        <v>0.0007358178263367308</v>
       </c>
       <c r="F36">
-        <v>0.006803455633436465</v>
+        <v>-0.01312788417217181</v>
       </c>
       <c r="G36">
-        <v>0.0521220343055718</v>
+        <v>0.01549054865111625</v>
       </c>
       <c r="H36">
-        <v>-0.04537328817584182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.04741551544642275</v>
+      </c>
+      <c r="I36">
+        <v>-0.04517198520144286</v>
+      </c>
+      <c r="J36">
+        <v>-0.01721479256713575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05524242558098524</v>
+        <v>-0.02024455932532808</v>
       </c>
       <c r="C38">
-        <v>-0.01640824263431086</v>
+        <v>-0.0133898472025244</v>
       </c>
       <c r="D38">
-        <v>0.01197981210367991</v>
+        <v>0.007877990063518484</v>
       </c>
       <c r="E38">
-        <v>0.009151870658599175</v>
+        <v>-0.01586976247023308</v>
       </c>
       <c r="F38">
-        <v>0.02874643256489384</v>
+        <v>-0.01721803292412066</v>
       </c>
       <c r="G38">
-        <v>0.05893130788900201</v>
+        <v>-0.01552759355608797</v>
       </c>
       <c r="H38">
-        <v>0.00968458725994357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.01523255976659604</v>
+      </c>
+      <c r="I38">
+        <v>0.04190719773118994</v>
+      </c>
+      <c r="J38">
+        <v>-0.001145996243346854</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1075942224395253</v>
+        <v>-0.1280047641797242</v>
       </c>
       <c r="C39">
-        <v>-0.04111282158376941</v>
+        <v>-0.07981524091982833</v>
       </c>
       <c r="D39">
-        <v>0.07458910924807824</v>
+        <v>0.02660154917516416</v>
       </c>
       <c r="E39">
-        <v>0.01009634162330112</v>
+        <v>-0.04074881122197826</v>
       </c>
       <c r="F39">
-        <v>0.01565035187860802</v>
+        <v>0.1124949138946123</v>
       </c>
       <c r="G39">
-        <v>0.1429540693140339</v>
+        <v>-0.01383695558987336</v>
       </c>
       <c r="H39">
-        <v>0.112902657005381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1330942494155098</v>
+      </c>
+      <c r="I39">
+        <v>-0.03284504872754049</v>
+      </c>
+      <c r="J39">
+        <v>-0.01342645841330659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.05190088486680212</v>
+        <v>-0.01654678727063404</v>
       </c>
       <c r="C40">
-        <v>-0.02324313902821857</v>
+        <v>-0.02265134614522158</v>
       </c>
       <c r="D40">
-        <v>0.09226170059597893</v>
+        <v>0.01930014280165571</v>
       </c>
       <c r="E40">
-        <v>-0.02824631011999038</v>
+        <v>-0.001226921677187518</v>
       </c>
       <c r="F40">
-        <v>-0.03523228040882623</v>
+        <v>-0.07080205477786689</v>
       </c>
       <c r="G40">
-        <v>0.2817988744562366</v>
+        <v>-0.007051433582187358</v>
       </c>
       <c r="H40">
-        <v>0.07153975973415137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.07350937846758333</v>
+      </c>
+      <c r="I40">
+        <v>-0.0859833318410121</v>
+      </c>
+      <c r="J40">
+        <v>0.03156316026488332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04868915008124597</v>
+        <v>-0.02885028636835994</v>
       </c>
       <c r="C41">
-        <v>-0.02851100752841882</v>
+        <v>-0.002487665958426319</v>
       </c>
       <c r="D41">
-        <v>-0.01395744434128734</v>
+        <v>0.0314281729741907</v>
       </c>
       <c r="E41">
-        <v>0.01137397370902504</v>
+        <v>-0.004533688707600457</v>
       </c>
       <c r="F41">
-        <v>0.03304500884804251</v>
+        <v>0.01265651895437614</v>
       </c>
       <c r="G41">
-        <v>0.05872678414955277</v>
+        <v>-0.009020096238426168</v>
       </c>
       <c r="H41">
-        <v>0.02609647378336249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.02194786754331967</v>
+      </c>
+      <c r="I41">
+        <v>-0.008061925232395064</v>
+      </c>
+      <c r="J41">
+        <v>-0.03444243120320555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07623650040490433</v>
+        <v>-0.04521408457167408</v>
       </c>
       <c r="C43">
-        <v>-0.02529881020977481</v>
+        <v>-0.004486305362156624</v>
       </c>
       <c r="D43">
-        <v>0.02717686175776254</v>
+        <v>0.0330162403213146</v>
       </c>
       <c r="E43">
-        <v>0.009782860670234006</v>
+        <v>-0.03086064751335056</v>
       </c>
       <c r="F43">
-        <v>0.03042015624428603</v>
+        <v>0.0004878415509346762</v>
       </c>
       <c r="G43">
-        <v>0.004147447482121902</v>
+        <v>-0.004706997381254346</v>
       </c>
       <c r="H43">
-        <v>0.01993919029020187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.04164400447987968</v>
+      </c>
+      <c r="I43">
+        <v>0.01435432305602226</v>
+      </c>
+      <c r="J43">
+        <v>-0.04785025205406591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.07900920622724825</v>
+        <v>-0.1204178523205071</v>
       </c>
       <c r="C44">
-        <v>-0.01042769601638217</v>
+        <v>-0.09480568270798045</v>
       </c>
       <c r="D44">
-        <v>0.07419230509076458</v>
+        <v>-0.004948261224862114</v>
       </c>
       <c r="E44">
-        <v>0.08985944464591772</v>
+        <v>-0.04445417331523916</v>
       </c>
       <c r="F44">
-        <v>0.08453276117024218</v>
+        <v>-0.07959067484798787</v>
       </c>
       <c r="G44">
-        <v>0.07615355968846879</v>
+        <v>-0.09459683513299202</v>
       </c>
       <c r="H44">
-        <v>0.002385734350322728</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2214094268452014</v>
+      </c>
+      <c r="I44">
+        <v>-0.09691073533420004</v>
+      </c>
+      <c r="J44">
+        <v>0.1142195641165933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05205052468776168</v>
+        <v>-0.02634190551503151</v>
       </c>
       <c r="C46">
-        <v>-0.03907958569355807</v>
+        <v>0.002880225567853376</v>
       </c>
       <c r="D46">
-        <v>0.04983496542945775</v>
+        <v>0.02189278181477751</v>
       </c>
       <c r="E46">
-        <v>-0.001889054240809014</v>
+        <v>-0.029429815482884</v>
       </c>
       <c r="F46">
-        <v>0.02578076345565049</v>
+        <v>-0.03171328649756849</v>
       </c>
       <c r="G46">
-        <v>0.02041476469570322</v>
+        <v>-0.02134261269881249</v>
       </c>
       <c r="H46">
-        <v>-0.08361747546964712</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05923182058042037</v>
+      </c>
+      <c r="I46">
+        <v>-0.0162716846930148</v>
+      </c>
+      <c r="J46">
+        <v>-0.05547203772123183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05095449485514459</v>
+        <v>-0.04209743585061277</v>
       </c>
       <c r="C47">
-        <v>0.0009914529198953937</v>
+        <v>-0.002651132986137417</v>
       </c>
       <c r="D47">
-        <v>0.06045173922117146</v>
+        <v>0.009841273895934838</v>
       </c>
       <c r="E47">
-        <v>-0.02923687041328745</v>
+        <v>-0.006671704668927313</v>
       </c>
       <c r="F47">
-        <v>0.001496050370631963</v>
+        <v>-0.01419279002891102</v>
       </c>
       <c r="G47">
-        <v>0.0004272489693125423</v>
+        <v>0.006672032900863501</v>
       </c>
       <c r="H47">
-        <v>-0.03160606842094675</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.05320357788426849</v>
+      </c>
+      <c r="I47">
+        <v>-0.01082644707307798</v>
+      </c>
+      <c r="J47">
+        <v>-0.04741579160691589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.0436052223189221</v>
+        <v>-0.03756801244001505</v>
       </c>
       <c r="C48">
-        <v>-0.001596583952023619</v>
+        <v>-0.001267846008309291</v>
       </c>
       <c r="D48">
-        <v>0.03549514478849114</v>
+        <v>-0.01179528197727185</v>
       </c>
       <c r="E48">
-        <v>-0.03489691299981506</v>
+        <v>-0.004489121568106931</v>
       </c>
       <c r="F48">
-        <v>-0.009254717032121131</v>
+        <v>-0.005127383037322118</v>
       </c>
       <c r="G48">
-        <v>0.04826524304099702</v>
+        <v>0.01358320386127394</v>
       </c>
       <c r="H48">
-        <v>-0.01101543984144043</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05103657170598667</v>
+      </c>
+      <c r="I48">
+        <v>-0.03972934280709824</v>
+      </c>
+      <c r="J48">
+        <v>-0.03077657704449979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2376304233404557</v>
+        <v>-0.2340436025334205</v>
       </c>
       <c r="C49">
-        <v>-0.06430734443575589</v>
+        <v>-0.0225196663508915</v>
       </c>
       <c r="D49">
-        <v>-0.08748112536947103</v>
+        <v>0.06733205360503615</v>
       </c>
       <c r="E49">
-        <v>0.04910425743442412</v>
+        <v>0.02243719890018317</v>
       </c>
       <c r="F49">
-        <v>-0.1163182967622104</v>
+        <v>0.04435280962407971</v>
       </c>
       <c r="G49">
-        <v>-0.1053989989978544</v>
+        <v>-0.05988441388865049</v>
       </c>
       <c r="H49">
-        <v>0.1024017004933421</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1959988845452553</v>
+      </c>
+      <c r="I49">
+        <v>0.1329838852925525</v>
+      </c>
+      <c r="J49">
+        <v>0.2059022928510389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05642101807271782</v>
+        <v>-0.04396391325647473</v>
       </c>
       <c r="C50">
-        <v>-0.01389049944969124</v>
+        <v>-0.01317660323084195</v>
       </c>
       <c r="D50">
-        <v>0.01295322993970303</v>
+        <v>0.02507539136763265</v>
       </c>
       <c r="E50">
-        <v>-0.02624188090484622</v>
+        <v>-0.008682715935432756</v>
       </c>
       <c r="F50">
-        <v>0.04581387404628906</v>
+        <v>0.002328215297544275</v>
       </c>
       <c r="G50">
-        <v>0.0019455782447241</v>
+        <v>-0.003365088625622566</v>
       </c>
       <c r="H50">
-        <v>-0.05654963898953211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.05518384390371012</v>
+      </c>
+      <c r="I50">
+        <v>-0.01691342531139822</v>
+      </c>
+      <c r="J50">
+        <v>-0.03373409873291389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03596081055235837</v>
+        <v>-0.0175978915881998</v>
       </c>
       <c r="C51">
-        <v>-0.009419784069126368</v>
+        <v>0.006015939929475081</v>
       </c>
       <c r="D51">
-        <v>-0.001261433984771799</v>
+        <v>0.001168269663818122</v>
       </c>
       <c r="E51">
-        <v>0.023100222541012</v>
+        <v>-0.01742301420990494</v>
       </c>
       <c r="F51">
-        <v>0.0218689901578769</v>
+        <v>-0.00268189247410423</v>
       </c>
       <c r="G51">
-        <v>-0.02104453646482813</v>
+        <v>-0.02226498676010319</v>
       </c>
       <c r="H51">
-        <v>0.03899004186162107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02300819749305653</v>
+      </c>
+      <c r="I51">
+        <v>0.003400202902717239</v>
+      </c>
+      <c r="J51">
+        <v>0.009737905422398723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.08117154723111383</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.05078352699135559</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.02164780007241747</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01768002208989284</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.0151091597372235</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.0005980651444974668</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.04730264361205278</v>
+      </c>
+      <c r="I52">
+        <v>0.04102913718215099</v>
+      </c>
+      <c r="J52">
+        <v>-0.1100168300583345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1615908156952156</v>
+        <v>-0.1634474731647193</v>
       </c>
       <c r="C53">
-        <v>0.008631982190062084</v>
+        <v>-0.02815408858907206</v>
       </c>
       <c r="D53">
-        <v>-0.08202180726854792</v>
+        <v>-0.01131342934474505</v>
       </c>
       <c r="E53">
-        <v>-0.06142205754927766</v>
+        <v>-0.001357301333136175</v>
       </c>
       <c r="F53">
-        <v>0.2088472818659814</v>
+        <v>0.001931531629609991</v>
       </c>
       <c r="G53">
-        <v>-0.0387203541444044</v>
+        <v>-0.01970644823859072</v>
       </c>
       <c r="H53">
-        <v>-0.04073069553295438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.003782969624619351</v>
+      </c>
+      <c r="I53">
+        <v>0.1106398326461998</v>
+      </c>
+      <c r="J53">
+        <v>-0.2001018033409381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.0554253560457592</v>
+        <v>-0.05150875575359935</v>
       </c>
       <c r="C54">
-        <v>-0.00739211017090166</v>
+        <v>-0.0131351595168904</v>
       </c>
       <c r="D54">
-        <v>0.04479223182041236</v>
+        <v>0.01229345584249085</v>
       </c>
       <c r="E54">
-        <v>0.01001067276327961</v>
+        <v>-0.008278115091944</v>
       </c>
       <c r="F54">
-        <v>0.02082604137235542</v>
+        <v>-0.02865131510715697</v>
       </c>
       <c r="G54">
-        <v>0.05463525482709904</v>
+        <v>0.0059953194229728</v>
       </c>
       <c r="H54">
-        <v>-0.1007104529075115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.07293680160711087</v>
+      </c>
+      <c r="I54">
+        <v>-0.119369868045439</v>
+      </c>
+      <c r="J54">
+        <v>-0.06132217671210717</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09583250178586859</v>
+        <v>-0.087433867824342</v>
       </c>
       <c r="C55">
-        <v>-0.00560141881248066</v>
+        <v>-0.02351255199340549</v>
       </c>
       <c r="D55">
-        <v>-0.0204029870387391</v>
+        <v>-0.02102996868485446</v>
       </c>
       <c r="E55">
-        <v>-0.03532575136123017</v>
+        <v>-0.04015514774833357</v>
       </c>
       <c r="F55">
-        <v>0.1619695150516055</v>
+        <v>0.0239917882510642</v>
       </c>
       <c r="G55">
-        <v>0.003550046326633621</v>
+        <v>-0.005048793715601364</v>
       </c>
       <c r="H55">
-        <v>-0.06871064471874662</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.01952428881547969</v>
+      </c>
+      <c r="I55">
+        <v>0.02464732387806044</v>
+      </c>
+      <c r="J55">
+        <v>-0.1395506357639684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1632441224497409</v>
+        <v>-0.1609116371048519</v>
       </c>
       <c r="C56">
-        <v>0.008772425222305777</v>
+        <v>-0.03287267794838244</v>
       </c>
       <c r="D56">
-        <v>-0.08869819796064896</v>
+        <v>0.007341608050902428</v>
       </c>
       <c r="E56">
-        <v>-0.09402132111740738</v>
+        <v>-0.02365308421631506</v>
       </c>
       <c r="F56">
-        <v>0.2037623029889912</v>
+        <v>0.02525669517377575</v>
       </c>
       <c r="G56">
-        <v>-0.02277819268120693</v>
+        <v>-0.02359241188420132</v>
       </c>
       <c r="H56">
-        <v>-0.0515093426420285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.05027407032951533</v>
+      </c>
+      <c r="I56">
+        <v>0.08413217540600541</v>
+      </c>
+      <c r="J56">
+        <v>-0.158883144321463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01783414791046856</v>
+        <v>-0.03721500724867081</v>
       </c>
       <c r="C58">
-        <v>-0.08336214517523349</v>
+        <v>-0.01486190303330862</v>
       </c>
       <c r="D58">
-        <v>0.2422815255283017</v>
+        <v>0.0175274215273049</v>
       </c>
       <c r="E58">
-        <v>-0.04317173630981432</v>
+        <v>-0.01211035122215864</v>
       </c>
       <c r="F58">
-        <v>-0.380827640477349</v>
+        <v>-0.08923821727450576</v>
       </c>
       <c r="G58">
-        <v>0.1018731327730595</v>
+        <v>0.01373203850031833</v>
       </c>
       <c r="H58">
-        <v>0.1279031579444321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.09159816318311356</v>
+      </c>
+      <c r="I58">
+        <v>0.01707229779619822</v>
+      </c>
+      <c r="J58">
+        <v>-0.006664970898164732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1479911051056114</v>
+        <v>-0.1670238659006094</v>
       </c>
       <c r="C59">
-        <v>0.3857392868772239</v>
+        <v>0.2842699441430939</v>
       </c>
       <c r="D59">
-        <v>-0.04743109470386234</v>
+        <v>-0.08594171890439141</v>
       </c>
       <c r="E59">
-        <v>0.06023020137545768</v>
+        <v>-0.02000721636698555</v>
       </c>
       <c r="F59">
-        <v>0.04244523652669523</v>
+        <v>0.06071871477013552</v>
       </c>
       <c r="G59">
-        <v>0.01697278569024397</v>
+        <v>-0.03520014433613165</v>
       </c>
       <c r="H59">
-        <v>0.0368672593504771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.01881477349596964</v>
+      </c>
+      <c r="I59">
+        <v>-0.03660010114019511</v>
+      </c>
+      <c r="J59">
+        <v>-0.029146272786883</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2765981179864402</v>
+        <v>-0.2801528363342108</v>
       </c>
       <c r="C60">
-        <v>-0.04991694882318383</v>
+        <v>-0.1236015997562031</v>
       </c>
       <c r="D60">
-        <v>-0.05880912363498301</v>
+        <v>0.01299437405951797</v>
       </c>
       <c r="E60">
-        <v>0.04907857807510943</v>
+        <v>0.06452475248461385</v>
       </c>
       <c r="F60">
-        <v>-0.06883243803575835</v>
+        <v>0.03687652853926452</v>
       </c>
       <c r="G60">
-        <v>-0.1420108844791493</v>
+        <v>-0.121678632926574</v>
       </c>
       <c r="H60">
-        <v>0.04878557412556386</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.07132755219896174</v>
+      </c>
+      <c r="I60">
+        <v>0.158135000619801</v>
+      </c>
+      <c r="J60">
+        <v>0.3349588154715775</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09513467650219039</v>
+        <v>-0.1127357438035734</v>
       </c>
       <c r="C61">
-        <v>-0.02148699335846609</v>
+        <v>-0.05485138358952165</v>
       </c>
       <c r="D61">
-        <v>0.02566644602210931</v>
+        <v>-0.007584989464425079</v>
       </c>
       <c r="E61">
-        <v>0.01114149804744416</v>
+        <v>-0.02176057399817462</v>
       </c>
       <c r="F61">
-        <v>0.03351788690561623</v>
+        <v>0.06351604392626724</v>
       </c>
       <c r="G61">
-        <v>0.0592292681351937</v>
+        <v>-0.02379443154318783</v>
       </c>
       <c r="H61">
-        <v>0.04908749574340315</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1293468429846866</v>
+      </c>
+      <c r="I61">
+        <v>-0.07322387310925572</v>
+      </c>
+      <c r="J61">
+        <v>-0.06806241675143145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1428344695920851</v>
+        <v>-0.1545915087486066</v>
       </c>
       <c r="C62">
-        <v>-0.02308052588203569</v>
+        <v>-0.0341594852537286</v>
       </c>
       <c r="D62">
-        <v>-0.1427969948091988</v>
+        <v>0.003930405452826014</v>
       </c>
       <c r="E62">
-        <v>-0.08269809771094472</v>
+        <v>-0.0117028029067744</v>
       </c>
       <c r="F62">
-        <v>0.1673982088655096</v>
+        <v>0.02506769351563843</v>
       </c>
       <c r="G62">
-        <v>-0.003632656220920195</v>
+        <v>0.001369876783398741</v>
       </c>
       <c r="H62">
-        <v>-0.06310966932853286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.009686374605364719</v>
+      </c>
+      <c r="I62">
+        <v>0.09421679634652948</v>
+      </c>
+      <c r="J62">
+        <v>-0.1432899021647578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04392003285532637</v>
+        <v>-0.04235706853298116</v>
       </c>
       <c r="C63">
-        <v>-0.01838805352481741</v>
+        <v>-0.005459793766188252</v>
       </c>
       <c r="D63">
-        <v>0.008420589320647277</v>
+        <v>-0.00741140483757965</v>
       </c>
       <c r="E63">
-        <v>-0.01771227826563894</v>
+        <v>-0.01540515978957983</v>
       </c>
       <c r="F63">
-        <v>0.009326045082559914</v>
+        <v>0.002329699524086913</v>
       </c>
       <c r="G63">
-        <v>0.04099896728867287</v>
+        <v>0.03832690077406228</v>
       </c>
       <c r="H63">
-        <v>-0.1012034057898183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.04611185066160069</v>
+      </c>
+      <c r="I63">
+        <v>-0.04469361608075698</v>
+      </c>
+      <c r="J63">
+        <v>-0.03635837254387746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1109876521550118</v>
+        <v>-0.09941646240036583</v>
       </c>
       <c r="C64">
-        <v>-0.01151912003173093</v>
+        <v>-0.01853355992631966</v>
       </c>
       <c r="D64">
-        <v>0.05331811171293226</v>
+        <v>0.0135349074404032</v>
       </c>
       <c r="E64">
-        <v>0.03333589334902511</v>
+        <v>0.0004165867209767838</v>
       </c>
       <c r="F64">
-        <v>-1.537491130880828e-05</v>
+        <v>-0.004520894272039916</v>
       </c>
       <c r="G64">
-        <v>0.04906627429387676</v>
+        <v>-0.05369170431511266</v>
       </c>
       <c r="H64">
-        <v>-0.002319953303935044</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.05816820930152775</v>
+      </c>
+      <c r="I64">
+        <v>-0.04653947475305299</v>
+      </c>
+      <c r="J64">
+        <v>0.05661274928776015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1157108954148873</v>
+        <v>-0.1183285078068154</v>
       </c>
       <c r="C65">
-        <v>-0.02538927293739854</v>
+        <v>-0.007739661025522928</v>
       </c>
       <c r="D65">
-        <v>0.06335343143137423</v>
+        <v>-0.02083228784910178</v>
       </c>
       <c r="E65">
-        <v>-0.005317561651722737</v>
+        <v>0.01553911400703717</v>
       </c>
       <c r="F65">
-        <v>-0.3275267038130161</v>
+        <v>-0.008537631749820866</v>
       </c>
       <c r="G65">
-        <v>-0.1454714790429709</v>
+        <v>0.07385065932073245</v>
       </c>
       <c r="H65">
-        <v>-0.6406252682754854</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.02603715356224112</v>
+      </c>
+      <c r="I65">
+        <v>-0.04691448664784684</v>
+      </c>
+      <c r="J65">
+        <v>0.2537578690110714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1569622892179504</v>
+        <v>-0.1575009602576167</v>
       </c>
       <c r="C66">
-        <v>-0.04878618027963439</v>
+        <v>-0.1035327237318792</v>
       </c>
       <c r="D66">
-        <v>0.03340997591119007</v>
+        <v>0.04386479907534546</v>
       </c>
       <c r="E66">
-        <v>0.06146850528458928</v>
+        <v>-0.04866439074875497</v>
       </c>
       <c r="F66">
-        <v>0.0494299599609463</v>
+        <v>0.1285793612365604</v>
       </c>
       <c r="G66">
-        <v>0.2703115350636254</v>
+        <v>-0.03069862452642327</v>
       </c>
       <c r="H66">
-        <v>0.1982826091704103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.140905369470182</v>
+      </c>
+      <c r="I66">
+        <v>-0.01989451293087205</v>
+      </c>
+      <c r="J66">
+        <v>-0.009236136409124126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1084520557919801</v>
+        <v>-0.07998891708157375</v>
       </c>
       <c r="C67">
-        <v>-0.03553438968742712</v>
+        <v>-0.04555902145016805</v>
       </c>
       <c r="D67">
-        <v>-0.008227772199630461</v>
+        <v>-0.01683651644424878</v>
       </c>
       <c r="E67">
-        <v>0.03717906536114769</v>
+        <v>-0.07576899710839147</v>
       </c>
       <c r="F67">
-        <v>0.05512945724231431</v>
+        <v>0.003999115984236266</v>
       </c>
       <c r="G67">
-        <v>0.03797194225324868</v>
+        <v>-0.02988394479740154</v>
       </c>
       <c r="H67">
-        <v>0.01725882638280252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.065156360792486</v>
+      </c>
+      <c r="I67">
+        <v>-0.0017138186878063</v>
+      </c>
+      <c r="J67">
+        <v>0.02222379002753615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.03640886122864826</v>
+        <v>-0.07672027100786788</v>
       </c>
       <c r="C68">
-        <v>0.293331031299767</v>
+        <v>0.2755278699450562</v>
       </c>
       <c r="D68">
-        <v>-0.005045499530142231</v>
+        <v>-0.08615408001494806</v>
       </c>
       <c r="E68">
-        <v>-0.02090099829139695</v>
+        <v>-0.002400231935534705</v>
       </c>
       <c r="F68">
-        <v>-0.01124347604280384</v>
+        <v>0.02752820207697147</v>
       </c>
       <c r="G68">
-        <v>-0.01796958268370272</v>
+        <v>0.01370733306021639</v>
       </c>
       <c r="H68">
-        <v>-0.02850175415628625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04128095380229424</v>
+      </c>
+      <c r="I68">
+        <v>-0.03320048583259463</v>
+      </c>
+      <c r="J68">
+        <v>0.01246273328109109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05062436515541447</v>
+        <v>-0.03892336655161464</v>
       </c>
       <c r="C69">
-        <v>-0.01106958775658913</v>
+        <v>-0.004722390389305156</v>
       </c>
       <c r="D69">
-        <v>-0.01054204353715847</v>
+        <v>-0.01300955130205619</v>
       </c>
       <c r="E69">
-        <v>-0.03314336677720919</v>
+        <v>-0.02158187380246211</v>
       </c>
       <c r="F69">
-        <v>-0.01418492614003975</v>
+        <v>-6.95174983019825e-05</v>
       </c>
       <c r="G69">
-        <v>0.02056600650396655</v>
+        <v>-0.001844475116626072</v>
       </c>
       <c r="H69">
-        <v>-0.01762158446720942</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01894913142426801</v>
+      </c>
+      <c r="I69">
+        <v>0.01510790798780233</v>
+      </c>
+      <c r="J69">
+        <v>-0.01911143435038878</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08195586884400877</v>
+        <v>-0.04471002476914892</v>
       </c>
       <c r="C70">
-        <v>-0.0110757034875981</v>
+        <v>-0.006117564926989917</v>
       </c>
       <c r="D70">
-        <v>-0.008521419826184234</v>
+        <v>-0.02540328344782946</v>
       </c>
       <c r="E70">
-        <v>0.06084370130320101</v>
+        <v>-0.01964916715030947</v>
       </c>
       <c r="F70">
-        <v>0.002348006570966055</v>
+        <v>0.0301846265824737</v>
       </c>
       <c r="G70">
-        <v>-0.03814915900690456</v>
+        <v>-0.04837023591599528</v>
       </c>
       <c r="H70">
-        <v>0.01036608283573798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.002129404757609899</v>
+      </c>
+      <c r="I70">
+        <v>-0.01783547725665151</v>
+      </c>
+      <c r="J70">
+        <v>-0.0312110927311805</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04797970792155486</v>
+        <v>-0.08942853808825953</v>
       </c>
       <c r="C71">
-        <v>0.3008291323986138</v>
+        <v>0.2892555657864882</v>
       </c>
       <c r="D71">
-        <v>0.003506133489087286</v>
+        <v>-0.09066564089242107</v>
       </c>
       <c r="E71">
-        <v>0.001935930872569822</v>
+        <v>-0.006354836752046264</v>
       </c>
       <c r="F71">
-        <v>-0.01013502840475804</v>
+        <v>0.01952021314625711</v>
       </c>
       <c r="G71">
-        <v>0.008541338425297876</v>
+        <v>-0.013647159640257</v>
       </c>
       <c r="H71">
-        <v>-0.007949107743788306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.05073808379158726</v>
+      </c>
+      <c r="I71">
+        <v>-0.02831616990790765</v>
+      </c>
+      <c r="J71">
+        <v>0.03090711313851113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1335090313458273</v>
+        <v>-0.1397375062730825</v>
       </c>
       <c r="C72">
-        <v>0.02048541775388116</v>
+        <v>0.01893732548815565</v>
       </c>
       <c r="D72">
-        <v>-0.08128808289837409</v>
+        <v>0.01059636816315391</v>
       </c>
       <c r="E72">
-        <v>-0.1136678281118115</v>
+        <v>-0.01109428436028315</v>
       </c>
       <c r="F72">
-        <v>-0.04788461826350589</v>
+        <v>0.01527025376168496</v>
       </c>
       <c r="G72">
-        <v>0.09272975248092934</v>
+        <v>0.04751839446275409</v>
       </c>
       <c r="H72">
-        <v>-0.1115966406292805</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.002760044983939646</v>
+      </c>
+      <c r="I72">
+        <v>0.004505610981318867</v>
+      </c>
+      <c r="J72">
+        <v>-0.00787108767157378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.285228926561132</v>
+        <v>-0.2479025453600035</v>
       </c>
       <c r="C73">
-        <v>-0.1451556875065279</v>
+        <v>-0.08085327615776923</v>
       </c>
       <c r="D73">
-        <v>-0.1317469580510012</v>
+        <v>0.0500248613909406</v>
       </c>
       <c r="E73">
-        <v>0.108170594303304</v>
+        <v>-0.0483987750315205</v>
       </c>
       <c r="F73">
-        <v>-0.306483907149332</v>
+        <v>0.1062409945468004</v>
       </c>
       <c r="G73">
-        <v>-0.2843084884013214</v>
+        <v>-0.177102147051639</v>
       </c>
       <c r="H73">
-        <v>0.2153465222061121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.3154481229935341</v>
+      </c>
+      <c r="I73">
+        <v>0.2474023779428403</v>
+      </c>
+      <c r="J73">
+        <v>0.2560284419247273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1014679383460833</v>
+        <v>-0.1116196501767766</v>
       </c>
       <c r="C74">
-        <v>-0.0301129326775163</v>
+        <v>-0.03168565975562584</v>
       </c>
       <c r="D74">
-        <v>-0.03192995209253177</v>
+        <v>0.02509792863966918</v>
       </c>
       <c r="E74">
-        <v>-0.02641737199478714</v>
+        <v>-0.0287296848761163</v>
       </c>
       <c r="F74">
-        <v>0.1062668843482212</v>
+        <v>0.005783107280332399</v>
       </c>
       <c r="G74">
-        <v>-0.03921013214377097</v>
+        <v>-0.004174017090074796</v>
       </c>
       <c r="H74">
-        <v>-0.03098775800429185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.0552042761682308</v>
+      </c>
+      <c r="I74">
+        <v>0.111160583375491</v>
+      </c>
+      <c r="J74">
+        <v>-0.1143415204664095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09406608029220398</v>
+        <v>-0.1167183236350741</v>
       </c>
       <c r="C75">
-        <v>-0.01741323932034773</v>
+        <v>-0.03853216394292466</v>
       </c>
       <c r="D75">
-        <v>-0.05614197122312602</v>
+        <v>0.01884144304382875</v>
       </c>
       <c r="E75">
-        <v>-0.07335888749182104</v>
+        <v>-0.01703566405372306</v>
       </c>
       <c r="F75">
-        <v>0.08352993657181396</v>
+        <v>0.007185514085264493</v>
       </c>
       <c r="G75">
-        <v>-0.04805194364394205</v>
+        <v>0.0232631136514754</v>
       </c>
       <c r="H75">
-        <v>-0.01658937894833038</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.002144911579520673</v>
+      </c>
+      <c r="I75">
+        <v>0.05370558336157188</v>
+      </c>
+      <c r="J75">
+        <v>-0.1304446340735132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.139098188829131</v>
+        <v>-0.04993573193507293</v>
       </c>
       <c r="C76">
-        <v>-0.02299691782404391</v>
+        <v>-0.006149539000196818</v>
       </c>
       <c r="D76">
-        <v>-0.02460320263170976</v>
+        <v>0.008320336863877001</v>
       </c>
       <c r="E76">
-        <v>-0.06886193273495805</v>
+        <v>-0.03570897353338995</v>
       </c>
       <c r="F76">
-        <v>0.2367749107958897</v>
+        <v>-0.003139451527013389</v>
       </c>
       <c r="G76">
-        <v>-0.09055320483474906</v>
+        <v>-0.02706187977161973</v>
       </c>
       <c r="H76">
-        <v>-0.04119873583891918</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.038782905911774</v>
+      </c>
+      <c r="I76">
+        <v>0.04420588046257956</v>
+      </c>
+      <c r="J76">
+        <v>-0.09947739296143286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.08229638703922802</v>
+        <v>-0.07903723822409919</v>
       </c>
       <c r="C77">
-        <v>0.008032779852421408</v>
+        <v>-0.07853852079056838</v>
       </c>
       <c r="D77">
-        <v>0.133278434410741</v>
+        <v>0.01364884211061541</v>
       </c>
       <c r="E77">
-        <v>0.1184725642658424</v>
+        <v>0.006074751823397923</v>
       </c>
       <c r="F77">
-        <v>-0.2164004201332182</v>
+        <v>-0.01197634918936882</v>
       </c>
       <c r="G77">
-        <v>0.1465017390986262</v>
+        <v>-0.05202924829244401</v>
       </c>
       <c r="H77">
-        <v>0.1228031921283106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.1026373680293301</v>
+      </c>
+      <c r="I77">
+        <v>-0.2703729749821833</v>
+      </c>
+      <c r="J77">
+        <v>0.3206687723467666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2237276560126776</v>
+        <v>-0.1511468182691837</v>
       </c>
       <c r="C78">
-        <v>-0.05102219046440712</v>
+        <v>-0.03664538688452362</v>
       </c>
       <c r="D78">
-        <v>0.2075082726487153</v>
+        <v>0.1280087266168918</v>
       </c>
       <c r="E78">
-        <v>0.05010710424162376</v>
+        <v>-0.1961809206766166</v>
       </c>
       <c r="F78">
-        <v>-0.01175177686156306</v>
+        <v>-0.2004580897694571</v>
       </c>
       <c r="G78">
-        <v>0.1463158306115385</v>
+        <v>0.09753098088345197</v>
       </c>
       <c r="H78">
-        <v>-0.08965278827443227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5748693961818179</v>
+      </c>
+      <c r="I78">
+        <v>-0.6188224354226768</v>
+      </c>
+      <c r="J78">
+        <v>-0.1933398795093089</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1381882198289961</v>
+        <v>-0.1348714142938971</v>
       </c>
       <c r="C79">
-        <v>-0.005897017340550429</v>
+        <v>-0.02538890536298773</v>
       </c>
       <c r="D79">
-        <v>-0.03391759530423885</v>
+        <v>0.04763365910395374</v>
       </c>
       <c r="E79">
-        <v>-0.05131885160099123</v>
+        <v>-0.01381297615341596</v>
       </c>
       <c r="F79">
-        <v>0.1307699145321133</v>
+        <v>0.01371838759523436</v>
       </c>
       <c r="G79">
-        <v>0.00654943963882986</v>
+        <v>-0.0124002654654199</v>
       </c>
       <c r="H79">
-        <v>-0.0595290190562672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.04202330689555728</v>
+      </c>
+      <c r="I79">
+        <v>0.05834257088796127</v>
+      </c>
+      <c r="J79">
+        <v>-0.103622588336026</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03543798665314571</v>
+        <v>-0.07173889997452514</v>
       </c>
       <c r="C80">
-        <v>-0.005772726635232722</v>
+        <v>-0.05860735140153674</v>
       </c>
       <c r="D80">
-        <v>-0.02476009174036363</v>
+        <v>-0.01296650983671527</v>
       </c>
       <c r="E80">
-        <v>0.05540149864071275</v>
+        <v>-0.02211407945621168</v>
       </c>
       <c r="F80">
-        <v>-0.01829226777491212</v>
+        <v>0.05371711000179762</v>
       </c>
       <c r="G80">
-        <v>0.05710634529022644</v>
+        <v>0.0008306256360662765</v>
       </c>
       <c r="H80">
-        <v>-0.1186487284037387</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.02292228323574779</v>
+      </c>
+      <c r="I80">
+        <v>-0.05806506505656769</v>
+      </c>
+      <c r="J80">
+        <v>-0.1922766688348942</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1131292328672445</v>
+        <v>-0.1357728986750249</v>
       </c>
       <c r="C81">
-        <v>0.0007207520422478174</v>
+        <v>-0.03570242094125663</v>
       </c>
       <c r="D81">
-        <v>-0.020456610348508</v>
+        <v>0.03023936601801285</v>
       </c>
       <c r="E81">
-        <v>-0.02341595650478154</v>
+        <v>-0.01948766647827675</v>
       </c>
       <c r="F81">
-        <v>0.12481206468642</v>
+        <v>0.003415895146603537</v>
       </c>
       <c r="G81">
-        <v>-0.02922921345927485</v>
+        <v>-0.00994114899275694</v>
       </c>
       <c r="H81">
-        <v>0.00628780588044814</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.05769181182735306</v>
+      </c>
+      <c r="I81">
+        <v>0.05725109156754737</v>
+      </c>
+      <c r="J81">
+        <v>-0.1502321128386238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1112463191752149</v>
+        <v>-0.1524284383562519</v>
       </c>
       <c r="C82">
-        <v>-0.01746485516253676</v>
+        <v>-0.04426584892592331</v>
       </c>
       <c r="D82">
-        <v>-0.05817342623644136</v>
+        <v>-0.005471386396296189</v>
       </c>
       <c r="E82">
-        <v>0.02837692929515126</v>
+        <v>-0.01011477142274535</v>
       </c>
       <c r="F82">
-        <v>0.2603188321004894</v>
+        <v>0.04328632827583528</v>
       </c>
       <c r="G82">
-        <v>-0.0140977822180775</v>
+        <v>-0.04154066354596669</v>
       </c>
       <c r="H82">
-        <v>-0.04066649204480792</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.0444131793186598</v>
+      </c>
+      <c r="I82">
+        <v>0.1387915168022102</v>
+      </c>
+      <c r="J82">
+        <v>-0.2206806144412522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1123836687084251</v>
+        <v>-0.08916378752483917</v>
       </c>
       <c r="C83">
-        <v>-0.0437146298801601</v>
+        <v>-0.06003323593892052</v>
       </c>
       <c r="D83">
-        <v>0.0001631767780548799</v>
+        <v>0.003817887510598487</v>
       </c>
       <c r="E83">
-        <v>0.09895054735705597</v>
+        <v>0.03414886798464275</v>
       </c>
       <c r="F83">
-        <v>-0.02900069916090115</v>
+        <v>-0.03188919638123691</v>
       </c>
       <c r="G83">
-        <v>0.05205225298894905</v>
+        <v>0.01153053457711152</v>
       </c>
       <c r="H83">
-        <v>0.0755393650919671</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.05290469335262951</v>
+      </c>
+      <c r="I83">
+        <v>-0.07234631574501089</v>
+      </c>
+      <c r="J83">
+        <v>-0.0793790408662894</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.05121940920239436</v>
+        <v>-0.06773308544605185</v>
       </c>
       <c r="C84">
-        <v>-0.02466489866422211</v>
+        <v>-0.009476851252230462</v>
       </c>
       <c r="D84">
-        <v>0.01555936339609049</v>
+        <v>-0.01272397029833941</v>
       </c>
       <c r="E84">
-        <v>-0.05447571454079658</v>
+        <v>0.03500787223824051</v>
       </c>
       <c r="F84">
-        <v>0.05678372559318996</v>
+        <v>0.03394020045893527</v>
       </c>
       <c r="G84">
-        <v>-0.04177889619361297</v>
+        <v>-0.03323145112732943</v>
       </c>
       <c r="H84">
-        <v>-0.0002469496186318166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.01548090657896127</v>
+      </c>
+      <c r="I84">
+        <v>0.01110679672115638</v>
+      </c>
+      <c r="J84">
+        <v>0.05708477093989658</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1066305697752154</v>
+        <v>-0.1216322203633562</v>
       </c>
       <c r="C85">
-        <v>-0.01232150642937122</v>
+        <v>-0.02468356137763714</v>
       </c>
       <c r="D85">
-        <v>-0.04322978356522764</v>
+        <v>0.01716270246993098</v>
       </c>
       <c r="E85">
-        <v>-0.07831293631561645</v>
+        <v>-0.01753736559290564</v>
       </c>
       <c r="F85">
-        <v>0.1546342686974951</v>
+        <v>0.009134593668511064</v>
       </c>
       <c r="G85">
-        <v>0.0139670482835919</v>
+        <v>-0.01293549335930703</v>
       </c>
       <c r="H85">
-        <v>-0.0920652745585422</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.04280403912217764</v>
+      </c>
+      <c r="I85">
+        <v>0.04332628117407049</v>
+      </c>
+      <c r="J85">
+        <v>-0.140089586366213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06740939927972885</v>
+        <v>-0.1198292071225536</v>
       </c>
       <c r="C86">
-        <v>-0.02024504033261431</v>
+        <v>0.04560852845770683</v>
       </c>
       <c r="D86">
-        <v>0.08562628785767244</v>
+        <v>0.3436640122639713</v>
       </c>
       <c r="E86">
-        <v>0.1123438503636817</v>
+        <v>0.8689986890339462</v>
       </c>
       <c r="F86">
-        <v>0.02052915968996414</v>
+        <v>-0.2072656014713611</v>
       </c>
       <c r="G86">
-        <v>0.04350131494444656</v>
+        <v>0.07210575441307562</v>
       </c>
       <c r="H86">
-        <v>-0.2666374398467657</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.03330194159880367</v>
+      </c>
+      <c r="I86">
+        <v>-0.07997107678874753</v>
+      </c>
+      <c r="J86">
+        <v>-0.05309829666955981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1087764392416816</v>
+        <v>-0.1201385609637945</v>
       </c>
       <c r="C87">
-        <v>-0.05588545132592174</v>
+        <v>-0.1070929891170948</v>
       </c>
       <c r="D87">
-        <v>0.06688464959420563</v>
+        <v>-0.07098276546089809</v>
       </c>
       <c r="E87">
-        <v>0.0261254067384852</v>
+        <v>0.01373769013911437</v>
       </c>
       <c r="F87">
-        <v>-0.0190119822640618</v>
+        <v>-0.02834155133524528</v>
       </c>
       <c r="G87">
-        <v>0.1208622605350735</v>
+        <v>-0.03991206747441255</v>
       </c>
       <c r="H87">
-        <v>-0.005112188162741334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09360022961553202</v>
+      </c>
+      <c r="I87">
+        <v>-0.1851400150893618</v>
+      </c>
+      <c r="J87">
+        <v>0.1953879695014871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07133653265878037</v>
+        <v>-0.05707909540729829</v>
       </c>
       <c r="C88">
-        <v>-0.04181402725037661</v>
+        <v>-0.02584434303566341</v>
       </c>
       <c r="D88">
-        <v>0.02383196654034651</v>
+        <v>0.02428552890491006</v>
       </c>
       <c r="E88">
-        <v>0.02528448927737096</v>
+        <v>-0.02176508124724707</v>
       </c>
       <c r="F88">
-        <v>0.03046853699479901</v>
+        <v>0.04906808600601376</v>
       </c>
       <c r="G88">
-        <v>0.04646205350157782</v>
+        <v>-0.0142552241434859</v>
       </c>
       <c r="H88">
-        <v>0.01368149086961727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02983354695313624</v>
+      </c>
+      <c r="I88">
+        <v>-0.01208380339895248</v>
+      </c>
+      <c r="J88">
+        <v>-0.0454977311583812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09161104524793182</v>
+        <v>-0.1399329443915817</v>
       </c>
       <c r="C89">
-        <v>0.3858277181562088</v>
+        <v>0.3625995437089099</v>
       </c>
       <c r="D89">
-        <v>0.04739389854310496</v>
+        <v>-0.1032629978253722</v>
       </c>
       <c r="E89">
-        <v>0.05118772436587787</v>
+        <v>-0.005498323086763679</v>
       </c>
       <c r="F89">
-        <v>-0.01332495244090189</v>
+        <v>-0.04043420572527829</v>
       </c>
       <c r="G89">
-        <v>-0.009328572067938065</v>
+        <v>-0.04825378018950515</v>
       </c>
       <c r="H89">
-        <v>0.01383811135476773</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.006220627414528683</v>
+      </c>
+      <c r="I89">
+        <v>-0.0394046157041819</v>
+      </c>
+      <c r="J89">
+        <v>0.004746710800475729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07028446415949387</v>
+        <v>-0.1028843800974425</v>
       </c>
       <c r="C90">
-        <v>0.2922886488391041</v>
+        <v>0.2870976216027492</v>
       </c>
       <c r="D90">
-        <v>0.05635802419086091</v>
+        <v>-0.07746974265121179</v>
       </c>
       <c r="E90">
-        <v>0.02040126570813</v>
+        <v>0.00513158884504207</v>
       </c>
       <c r="F90">
-        <v>-0.03216027907704599</v>
+        <v>0.01904001640529945</v>
       </c>
       <c r="G90">
-        <v>0.03339574708943648</v>
+        <v>-0.02186109937884237</v>
       </c>
       <c r="H90">
-        <v>0.03784313396193355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05242693291751822</v>
+      </c>
+      <c r="I90">
+        <v>-0.04482546814904664</v>
+      </c>
+      <c r="J90">
+        <v>0.04569596772774549</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08177533298764132</v>
+        <v>-0.08611036344650531</v>
       </c>
       <c r="C91">
-        <v>-0.01865201930205829</v>
+        <v>-0.02842649379851786</v>
       </c>
       <c r="D91">
-        <v>-0.02804461720171846</v>
+        <v>0.02073609439714761</v>
       </c>
       <c r="E91">
-        <v>-0.02514592893831123</v>
+        <v>0.004948641534684194</v>
       </c>
       <c r="F91">
-        <v>0.07495934150339843</v>
+        <v>-0.0006875238664983703</v>
       </c>
       <c r="G91">
-        <v>-0.07107467437726525</v>
+        <v>-0.02266360914469425</v>
       </c>
       <c r="H91">
-        <v>0.0239561639493565</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.01403314467024141</v>
+      </c>
+      <c r="I91">
+        <v>0.05979636358447027</v>
+      </c>
+      <c r="J91">
+        <v>-0.08625885167807122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06582085156739979</v>
+        <v>-0.1143326721682062</v>
       </c>
       <c r="C92">
-        <v>0.3566847071247624</v>
+        <v>0.3263275790556122</v>
       </c>
       <c r="D92">
-        <v>0.04047205068721228</v>
+        <v>-0.1070525932471178</v>
       </c>
       <c r="E92">
-        <v>0.01662993442755426</v>
+        <v>0.004270786762691266</v>
       </c>
       <c r="F92">
-        <v>-0.05670744235198264</v>
+        <v>-0.02827813759846242</v>
       </c>
       <c r="G92">
-        <v>-0.008654252456570422</v>
+        <v>-0.001491848396688544</v>
       </c>
       <c r="H92">
-        <v>0.02206405350510808</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.02187020018217761</v>
+      </c>
+      <c r="I92">
+        <v>-0.06908588802659001</v>
+      </c>
+      <c r="J92">
+        <v>-0.0284299816258479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08048041342660783</v>
+        <v>-0.110180929931807</v>
       </c>
       <c r="C93">
-        <v>0.3016582663359108</v>
+        <v>0.3107253294257032</v>
       </c>
       <c r="D93">
-        <v>0.02910847754216951</v>
+        <v>-0.08766836358806956</v>
       </c>
       <c r="E93">
-        <v>0.01106289183722572</v>
+        <v>0.02599644322129713</v>
       </c>
       <c r="F93">
-        <v>-0.03609739614825971</v>
+        <v>0.03888577699152518</v>
       </c>
       <c r="G93">
-        <v>-0.01726336718583419</v>
+        <v>-0.03178801583803978</v>
       </c>
       <c r="H93">
-        <v>-0.002304135715302836</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.0378708875376014</v>
+      </c>
+      <c r="I93">
+        <v>-0.01126317700728313</v>
+      </c>
+      <c r="J93">
+        <v>0.03302719352244539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.093746896463398</v>
+        <v>-0.1339776722609473</v>
       </c>
       <c r="C94">
-        <v>-0.04244376542939164</v>
+        <v>-0.04368770963723369</v>
       </c>
       <c r="D94">
-        <v>-0.02322005839342048</v>
+        <v>0.01806874214504356</v>
       </c>
       <c r="E94">
-        <v>-0.05208594478833574</v>
+        <v>-0.05313830306273778</v>
       </c>
       <c r="F94">
-        <v>0.117253974644641</v>
+        <v>-0.002871026546420991</v>
       </c>
       <c r="G94">
-        <v>-0.05711992371441125</v>
+        <v>-0.007515067807534771</v>
       </c>
       <c r="H94">
-        <v>-0.03781125643943285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.03253964867138653</v>
+      </c>
+      <c r="I94">
+        <v>0.09094168764326863</v>
+      </c>
+      <c r="J94">
+        <v>-0.1106636191105717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1313468999644295</v>
+        <v>-0.1207587861524267</v>
       </c>
       <c r="C95">
-        <v>-0.07720619688421217</v>
+        <v>-0.05098699713548595</v>
       </c>
       <c r="D95">
-        <v>0.09374193473230216</v>
+        <v>0.03253909008866222</v>
       </c>
       <c r="E95">
-        <v>0.0819161409022917</v>
+        <v>-0.02711335955224327</v>
       </c>
       <c r="F95">
-        <v>-0.06626274737436061</v>
+        <v>-0.03303148237422452</v>
       </c>
       <c r="G95">
-        <v>0.1037729618425452</v>
+        <v>-0.03928143100901316</v>
       </c>
       <c r="H95">
-        <v>-0.08223552840141378</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.01458274609806246</v>
+      </c>
+      <c r="I95">
+        <v>-0.1248905941950881</v>
+      </c>
+      <c r="J95">
+        <v>0.03442516995997403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009672124081819866</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0007192193594747098</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001353288236229163</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.002114406480866328</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.00681518577327462</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.003057224281639437</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.001604245399523523</v>
+      </c>
+      <c r="I96">
+        <v>-0.02201147911559995</v>
+      </c>
+      <c r="J96">
+        <v>0.01618652771552068</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1507117952670178</v>
+        <v>-0.1677183490562505</v>
       </c>
       <c r="C97">
-        <v>0.04370994874151287</v>
+        <v>0.01208889787835181</v>
       </c>
       <c r="D97">
-        <v>-0.2129910868421957</v>
+        <v>0.03353130186526377</v>
       </c>
       <c r="E97">
-        <v>-0.8193126603859194</v>
+        <v>-0.1132241115988859</v>
       </c>
       <c r="F97">
-        <v>-0.2494651293895121</v>
+        <v>-0.03962912631850125</v>
       </c>
       <c r="G97">
-        <v>0.1971348081595161</v>
+        <v>0.92374063579208</v>
       </c>
       <c r="H97">
-        <v>0.03830075734508785</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.04202939067600605</v>
+      </c>
+      <c r="I97">
+        <v>0.162613457946089</v>
+      </c>
+      <c r="J97">
+        <v>0.1105470577239378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3272881595624512</v>
+        <v>-0.2685154199327866</v>
       </c>
       <c r="C98">
-        <v>-0.05225941329319875</v>
+        <v>-0.03668061748704253</v>
       </c>
       <c r="D98">
-        <v>-0.2154805901215579</v>
+        <v>-0.03252720257387122</v>
       </c>
       <c r="E98">
-        <v>0.1532032998972602</v>
+        <v>0.08772584750393005</v>
       </c>
       <c r="F98">
-        <v>-0.1125041708290924</v>
+        <v>-0.04768241856319739</v>
       </c>
       <c r="G98">
-        <v>-0.3164101812025505</v>
+        <v>-0.03469105202015389</v>
       </c>
       <c r="H98">
-        <v>0.2353686143106218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.3694442510764348</v>
+      </c>
+      <c r="I98">
+        <v>0.2166344578468715</v>
+      </c>
+      <c r="J98">
+        <v>-0.08558493878596179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08873152781822959</v>
+        <v>-0.05570161125214079</v>
       </c>
       <c r="C99">
-        <v>-0.02140462395190405</v>
+        <v>0.0004370362222675371</v>
       </c>
       <c r="D99">
-        <v>-0.005147372221740346</v>
+        <v>0.02354245274463766</v>
       </c>
       <c r="E99">
-        <v>0.005233643762799771</v>
+        <v>-0.0495703283830422</v>
       </c>
       <c r="F99">
-        <v>-0.01453177046883976</v>
+        <v>-0.01015855742819406</v>
       </c>
       <c r="G99">
-        <v>0.02710559533342968</v>
+        <v>-0.01119454754545785</v>
       </c>
       <c r="H99">
-        <v>0.06662686422031</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.008470067313582326</v>
+      </c>
+      <c r="I99">
+        <v>0.003853336067203999</v>
+      </c>
+      <c r="J99">
+        <v>-0.01734270390200206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.06416453648472617</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2731711553670881</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8686646163828147</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2851015604280839</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.1102508011932899</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.07341607290226314</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.06659244880857985</v>
+      </c>
+      <c r="I100">
+        <v>-0.06625169185318962</v>
+      </c>
+      <c r="J100">
+        <v>-0.05821949835606891</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05971834046564847</v>
+        <v>-0.03813144400189746</v>
       </c>
       <c r="C101">
-        <v>-0.001576531446391336</v>
+        <v>-0.007830845715489905</v>
       </c>
       <c r="D101">
-        <v>0.04838340624574863</v>
+        <v>-0.007297889569537817</v>
       </c>
       <c r="E101">
-        <v>0.02196775316397748</v>
+        <v>-0.000480732073249966</v>
       </c>
       <c r="F101">
-        <v>0.03921310279472631</v>
+        <v>0.01147399403616365</v>
       </c>
       <c r="G101">
-        <v>0.03325990811402571</v>
+        <v>-0.02582687792836883</v>
       </c>
       <c r="H101">
-        <v>-0.08732436058550708</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.08913475996645988</v>
+      </c>
+      <c r="I101">
+        <v>-0.03092501378032292</v>
+      </c>
+      <c r="J101">
+        <v>-0.06514586484600984</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
